--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H2">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N2">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O2">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P2">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q2">
-        <v>960.0317807546398</v>
+        <v>31.79746168186422</v>
       </c>
       <c r="R2">
-        <v>8640.286026791759</v>
+        <v>286.177155136778</v>
       </c>
       <c r="S2">
-        <v>0.04685577940887927</v>
+        <v>0.002628083427563893</v>
       </c>
       <c r="T2">
-        <v>0.04685577940887926</v>
+        <v>0.002628083427563893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H3">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N3">
         <v>126.793659</v>
       </c>
       <c r="O3">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P3">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q3">
-        <v>1111.190915756329</v>
+        <v>126.6283905095857</v>
       </c>
       <c r="R3">
-        <v>10000.71824180696</v>
+        <v>1139.655514586271</v>
       </c>
       <c r="S3">
-        <v>0.05423332588938093</v>
+        <v>0.01046592894385462</v>
       </c>
       <c r="T3">
-        <v>0.05423332588938092</v>
+        <v>0.01046592894385462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H4">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N4">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O4">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P4">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q4">
-        <v>821.3890671449958</v>
+        <v>73.41942795450211</v>
       </c>
       <c r="R4">
-        <v>7392.501604304962</v>
+        <v>660.774851590519</v>
       </c>
       <c r="S4">
-        <v>0.04008911549652888</v>
+        <v>0.006068169333733301</v>
       </c>
       <c r="T4">
-        <v>0.04008911549652887</v>
+        <v>0.006068169333733301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N5">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O5">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P5">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q5">
-        <v>5238.916594816079</v>
+        <v>1522.670459643963</v>
       </c>
       <c r="R5">
-        <v>47150.24935334471</v>
+        <v>13704.03413679567</v>
       </c>
       <c r="S5">
-        <v>0.2556931189457738</v>
+        <v>0.125849825393886</v>
       </c>
       <c r="T5">
-        <v>0.2556931189457737</v>
+        <v>0.1258498253938861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N6">
         <v>126.793659</v>
       </c>
       <c r="O6">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P6">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q6">
-        <v>6063.795642253346</v>
+        <v>6063.795642253347</v>
       </c>
       <c r="R6">
-        <v>54574.16078028012</v>
+        <v>54574.16078028013</v>
       </c>
       <c r="S6">
-        <v>0.29595256812291</v>
+        <v>0.5011771378162998</v>
       </c>
       <c r="T6">
-        <v>0.29595256812291</v>
+        <v>0.5011771378162998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N7">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O7">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P7">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q7">
-        <v>4482.339960958234</v>
+        <v>3515.802463378401</v>
       </c>
       <c r="R7">
-        <v>40341.05964862411</v>
+        <v>31642.22217040561</v>
       </c>
       <c r="S7">
-        <v>0.2187672706846986</v>
+        <v>0.2905836409534239</v>
       </c>
       <c r="T7">
-        <v>0.2187672706846986</v>
+        <v>0.2905836409534239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H8">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N8">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O8">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P8">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q8">
-        <v>601.1924347466398</v>
+        <v>104.9183725279338</v>
       </c>
       <c r="R8">
-        <v>5410.731912719759</v>
+        <v>944.265352751404</v>
       </c>
       <c r="S8">
-        <v>0.02934209124059715</v>
+        <v>0.008671580104298181</v>
       </c>
       <c r="T8">
-        <v>0.02934209124059715</v>
+        <v>0.008671580104298183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H9">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N9">
         <v>126.793659</v>
       </c>
       <c r="O9">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P9">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q9">
-        <v>695.8515181515952</v>
+        <v>417.8209185695754</v>
       </c>
       <c r="R9">
-        <v>6262.663663364357</v>
+        <v>3760.388267126179</v>
       </c>
       <c r="S9">
-        <v>0.03396206864132744</v>
+        <v>0.03453320402642424</v>
       </c>
       <c r="T9">
-        <v>0.03396206864132744</v>
+        <v>0.03453320402642424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H10">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N10">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O10">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P10">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q10">
-        <v>514.3714021248402</v>
+        <v>242.2535160192269</v>
       </c>
       <c r="R10">
-        <v>4629.342619123561</v>
+        <v>2180.281644173042</v>
       </c>
       <c r="S10">
-        <v>0.02510466156990393</v>
+        <v>0.02002243000051594</v>
       </c>
       <c r="T10">
-        <v>0.02510466156990393</v>
+        <v>0.02002243000051594</v>
       </c>
     </row>
   </sheetData>
